--- a/data/trans_camb/P25A_9_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_9_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +690,67 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>56,64</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>56,64</t>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -700,32 +778,62 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 88,99</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 7,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 88,99</t>
+          <t>-4,89; 2,45</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 1,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 3,64</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 3,12</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 2,21</t>
         </is>
       </c>
     </row>
@@ -758,27 +866,57 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-28,12%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-53,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>29,7%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-10,04%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -858,37 +1026,67 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,82</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,68</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>35,63</t>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -911,37 +1109,67 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,2</t>
+          <t>0,0; 3,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,1</t>
+          <t>-0,66; 6,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,08</t>
+          <t>-2,39; 5,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,46; 66,41</t>
+          <t>-4,27; 0,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,02</t>
+          <t>-3,19; 1,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,01</t>
+          <t>-1,05; 7,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 61,8</t>
+          <t>-6,07; 3,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 5,17</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; -0,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 0,94</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 3,87</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 3,69</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 3,65</t>
         </is>
       </c>
     </row>
@@ -969,32 +1197,62 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-78,86%</t>
+          <t>312,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,86%</t>
+          <t>64,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1930,1%</t>
+          <t>-80,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-78,99%</t>
+          <t>-17,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,36%</t>
+          <t>108,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3940,52%</t>
+          <t>-16,26%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31,5%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-80,8%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-18,4%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>143,64%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>34,99%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>44,64%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1290,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>396,4; 9020,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1042,12 +1300,42 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-86,25; 571,61</t>
+          <t>-53,95; 886,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>843,45; 20239,88</t>
+          <t>-81,62; 201,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-70,47; 475,81</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-88,96; 354,13</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-46,59; 988,85</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-65,54; 295,77</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-57,6; 368,01</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,72</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>37,39</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>36,84</t>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,0</t>
+          <t>-2,1; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,55</t>
+          <t>-1,25; 0,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 80,37</t>
+          <t>-0,55; 2,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,74</t>
+          <t>-1,64; 2,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,59</t>
+          <t>-1,55; 2,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,73; 55,71</t>
+          <t>-1,69; 2,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,36</t>
+          <t>-1,09; 3,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,09</t>
+          <t>2,26; 9,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,9; 54,86</t>
+          <t>-3,4; 6,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 7,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 1,25</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 1,92</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 5,4</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 3,06</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 4,61</t>
         </is>
       </c>
     </row>
@@ -1175,42 +1523,72 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-19,4%</t>
+          <t>-32,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9583,11%</t>
+          <t>177,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70,27%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2002,92%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>64,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>268,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3348,86%</t>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>57,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,84%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>49,57%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>256,6%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10,17%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>53,36%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1616,62 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,11; 297,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,11; 375,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>649,54; 5598,86</t>
+          <t>-68,58; 268,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,06; 261,7</t>
+          <t>-43,82; 386,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 394,23</t>
+          <t>49,98; 909,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1299,71; 8607,77</t>
+          <t>-38,75; 125,36</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-25,91; 245,66</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-66,56; 257,45</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-40,2; 348,0</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>48,07; 852,24</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-41,34; 100,87</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-27,94; 244,99</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43,78</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,94</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30,38</t>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,6</t>
+          <t>-3,35; 0,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,04</t>
+          <t>-2,89; 0,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,18; 69,01</t>
+          <t>-1,85; 2,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 2,22</t>
+          <t>-1,79; 3,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,33</t>
+          <t>-4,4; 2,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,34; 40,06</t>
+          <t>-3,75; 2,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,99</t>
+          <t>-3,46; 3,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,74</t>
+          <t>-0,11; 7,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,96; 43,98</t>
+          <t>-2,29; 8,04</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 11,37</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 0,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 1,43</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 4,42</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 4,68</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 5,71</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-50,39%</t>
+          <t>-48,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-37,11%</t>
+          <t>-40,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2563,96%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>-20,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>502,91%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-22,72%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>922,76%</t>
+          <t>31,1%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>105,26%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-24,66%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-12,09%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>60,07%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>57,65%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 216,8</t>
+          <t>-100,0; 206,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-90,56; 218,57</t>
+          <t>-92,03; 179,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>629,52; 8181,49</t>
+          <t>-76,91; 363,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 69,79</t>
+          <t>-69,95; 424,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,5; 110,29</t>
+          <t>-81,73; 201,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>183,18; 1115,44</t>
+          <t>-56,78; 87,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,79; 46,34</t>
+          <t>-52,14; 105,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,85; 75,59</t>
+          <t>-3,01; 238,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>466,27; 1830,38</t>
+          <t>-23,19; 117,28</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 296,34</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-63,38; 41,12</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-54,74; 64,53</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-11,54; 179,37</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-19,79; 116,64</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-12,62; 180,58</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>59,51</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>38,82</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>45,98</t>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,01</t>
+          <t>-2,75; 2,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 5,37</t>
+          <t>-0,63; 5,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36,72; 79,65</t>
+          <t>0,94; 8,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 3,45</t>
+          <t>-2,95; 7,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 1,41</t>
+          <t>-5,01; 6,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,48; 52,39</t>
+          <t>-6,55; 3,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,88</t>
+          <t>-8,12; 1,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,18</t>
+          <t>-2,11; 10,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>34,24; 57,15</t>
+          <t>-6,51; 7,14</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 6,2</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 1,89</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 2,19</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 8,0</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 5,57</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 4,65</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-9,14%</t>
+          <t>-4,79%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>108,87%</t>
+          <t>110,65%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2799,34%</t>
+          <t>193,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-12,36%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-38,74%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>505,0%</t>
+          <t>-16,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-12,32%</t>
+          <t>-39,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>49,22%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>930,64%</t>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-14,27%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-8,45%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>79,86%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-79,48; 266,96</t>
+          <t>-79,66; 344,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 612,23</t>
+          <t>-32,23; 776,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1110,72; 8993,62</t>
+          <t>14,09; 1176,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 69,14</t>
+          <t>-36,17; 172,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-69,87; 33,71</t>
+          <t>-45,86; 132,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>257,63; 1035,07</t>
+          <t>-58,6; 60,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-52,5; 53,21</t>
+          <t>-73,49; 25,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 64,05</t>
+          <t>-22,68; 188,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>535,19; 1583,1</t>
+          <t>-38,23; 83,06</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-40,09; 67,7</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-53,45; 54,61</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-48,2; 62,57</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>8,57; 213,26</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-26,4; 84,65</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-30,94; 57,87</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>29,48</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>-5,96</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-2,4</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 7,01</t>
+          <t>-10,3; 5,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 0,89</t>
+          <t>-13,42; 0,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,04; 54,01</t>
+          <t>-10,76; 4,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 3,12</t>
+          <t>-5,4; 9,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 6,45</t>
+          <t>-1,83; 12,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 25,12</t>
+          <t>-10,71; 2,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 2,39</t>
+          <t>-6,5; 8,79</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 2,85</t>
+          <t>-3,29; 13,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,03; 27,34</t>
+          <t>-14,6; 2,68</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 10,62</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 2,08</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 3,73</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 7,66</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 3,65</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 9,13</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-9,65%</t>
+          <t>-17,9%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-47,58%</t>
+          <t>-50,51%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>290,62%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-25,82%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>-25,32%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-20,17%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-18,16%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>126,44%</t>
+          <t>-29,93%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>24,51%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-22,62%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-14,56%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-16,04%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>37,44%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 115,64</t>
+          <t>-66,7; 80,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-84,57; 18,18</t>
+          <t>-82,85; 22,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>43,81; 756,88</t>
+          <t>-67,58; 73,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 28,8</t>
+          <t>-47,86; 181,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 57,29</t>
+          <t>-35,39; 366,69</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 208,27</t>
+          <t>-55,86; 27,41</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 24,53</t>
+          <t>-35,28; 75,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 31,13</t>
+          <t>-20,81; 118,84</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>39,24; 253,85</t>
+          <t>-59,91; 21,08</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-32,53; 153,54</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-50,03; 23,77</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-46,43; 37,79</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-26,7; 74,66</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-46,47; 29,58</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-17,32; 132,21</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
           <t>-0,45</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>42,81</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>28,34</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>32,74</t>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,8</t>
+          <t>-2,25; 0,7</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,41</t>
+          <t>-2,48; 0,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>31,5; 55,65</t>
+          <t>-1,1; 2,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,56</t>
+          <t>-0,51; 3,03</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,52</t>
+          <t>-0,72; 2,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>21,06; 35,26</t>
+          <t>-3,01; 0,43</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,29</t>
+          <t>-2,06; 1,77</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,65</t>
+          <t>1,71; 6,54</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,88; 39,4</t>
+          <t>-3,12; 2,1</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 4,51</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 0,1</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 0,72</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 3,94</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 1,98</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 3,05</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>-24,51%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-25,84%</t>
+          <t>-29,08%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1864,68%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-19,7%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>511,74%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>70,29%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>829,08%</t>
+          <t>-4,53%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>29,08%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-22,06%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-11,14%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>57,6%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>30,48%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-62,36; 53,73</t>
+          <t>-62,73; 45,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-63,24; 28,4</t>
+          <t>-66,07; 26,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>957,79; 3019,26</t>
+          <t>-33,58; 118,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-43,26; 13,03</t>
+          <t>-13,98; 128,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 32,48</t>
+          <t>-20,28; 111,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>331,76; 710,26</t>
+          <t>-43,8; 10,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 10,36</t>
+          <t>-30,97; 38,47</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 19,68</t>
+          <t>24,57; 134,03</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>613,84; 1117,92</t>
+          <t>-28,05; 26,27</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 72,61</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-43,8; 3,01</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; 22,33</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 111,11</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-16,98; 35,12</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 67,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
